--- a/output/inference_results/test_sheets/batch_005/test_sheet (59).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (59).xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>白细胞（WBC）</t>
+          <t>白细胞</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,82 +451,82 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4--10X109/L</t>
+          <t>4-10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>中性粒细胞百分比（NE%）</t>
+          <t>中性粒细胞百分率</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46.70</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50--70%</t>
+          <t>50-70</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>淋巴细胞百分比（LY%）</t>
+          <t>淋巴细胞百分率</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41.60→</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20--40%</t>
+          <t>20-40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>单核细胞百分比（MONO%）</t>
+          <t>单核细胞百分率</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3--8%</t>
+          <t>3-8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞百分比（E0%）</t>
+          <t>嗜酸性粒细胞百分率</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.6↑</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.5-5%</t>
+          <t>0.5-5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞百分比（BA%）</t>
+          <t>嗜碱性粒细胞百分率</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -536,14 +536,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0--1%</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>中性粒细胞绝对值（NE#）</t>
+          <t>中性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -553,14 +553,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2--7109/L</t>
+          <t>2-7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>淋巴细胞绝对值（LY#）</t>
+          <t>淋巴细胞绝对值</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -570,14 +570,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.8--4109/L</t>
+          <t>0.8-4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>单核细胞绝对值（MONO#）</t>
+          <t>单核细胞绝对值</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -587,14 +587,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.1——1109/L</t>
+          <t>0.1-1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞绝对值（E0#）</t>
+          <t>嗜酸性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.05--0.5109/L</t>
+          <t>0.05-0.5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>嗜碱性粒细胞绝对值（BA#）</t>
+          <t>嗜碱性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -621,31 +621,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0--0.1109/L</t>
+          <t>0-0.1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>红细胞（RBC）</t>
+          <t>红细胞</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4--5.5X1012/L</t>
+          <t>4-5.5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>血红蛋白（HGB）</t>
+          <t>血红蛋白</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -655,14 +655,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>110--160G/L</t>
+          <t>110-160</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>红细胞压积（HCT）</t>
+          <t>红细胞压积</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>32--50%</t>
+          <t>32-50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平均红细胞体积（MCV）</t>
+          <t>平均红细胞体积</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -689,14 +689,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>80--97FL</t>
+          <t>80-97</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RBC平均HB含量（MCH）</t>
+          <t>RBC平均HB含量</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -706,14 +706,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26--32PG</t>
+          <t>26-32</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RBC平均HB浓度（MCHC）</t>
+          <t>RBC平均HB浓度</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -723,14 +723,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>320--360 G/L</t>
+          <t>320-360</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>红细胞分布宽度变异系数（RDW.CV）</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -740,31 +740,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10--15%</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>红细胞分布宽度标准差（RDW SD）</t>
+          <t>红细胞分布宽度</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>50.6↑</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>39--46</t>
+          <t>39-46</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>血小板（PLT）</t>
+          <t>血小板</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -774,14 +774,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>100--300109/L</t>
+          <t>100-300</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平均血小板体积（MPV）</t>
+          <t>平均血小板体积</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9.4--12.5f</t>
+          <t>9.4-12.5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>血小板分布宽度（PDW）</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -808,14 +808,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15.5--18.1%</t>
+          <t>15.5-18.1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>血小板压积（PCT）</t>
+          <t>血小板压积</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.108--0.282%</t>
+          <t>0.108-0.282</t>
         </is>
       </c>
     </row>
